--- a/LinkedIn/Excel_Data_Analysis/Exercise Files/Chapter04/Poisson.xlsx
+++ b/LinkedIn/Excel_Data_Analysis/Exercise Files/Chapter04/Poisson.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21022"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Desktop\Exercise Files\Chapter04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtalebiz\Desktop\Jupyter\Examples\LinkedIn\Excel_Data_Analysis\Exercise Files\Chapter04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32E0899-E1DB-41E2-A327-225F3BDDACE5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB1E09E-89BA-4AC2-A518-DAB883BA4B3F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11025" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -382,11 +380,12 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
   </cols>
@@ -411,65 +410,169 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
+      <c r="B3">
+        <f>_xlfn.POISSON.DIST(A3,$B$1,FALSE)</f>
+        <v>4.9787068367863944E-2</v>
+      </c>
+      <c r="C3">
+        <f>_xlfn.POISSON.DIST(A3,$B$1,TRUE)</f>
+        <v>4.9787068367863944E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B15" si="0">_xlfn.POISSON.DIST(A4,$B$1,FALSE)</f>
+        <v>0.14936120510359185</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C15" si="1">_xlfn.POISSON.DIST(A4,$B$1,TRUE)</f>
+        <v>0.19914827347145578</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.22404180765538775</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.42319008112684342</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.22404180765538778</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.64723188878223126</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.16803135574154085</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.81526324452377208</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.10081881344492449</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.91608205796869657</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>5.0409406722462261E-2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.96649146469115887</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2.1604031452483807E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.98809549614364256</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>8.1015117946814375E-3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.996197007938324</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2.7005039315604771E-3</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.99889751186988451</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>8.1015117946814244E-4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.99970766304935266</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2.2095032167312987E-4</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.99992861337102579</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>5.5237580418282596E-5</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.99998385095144404</v>
       </c>
     </row>
   </sheetData>
